--- a/data/trans_bre/P1426-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1426-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.500198311946694</v>
+        <v>-1.416087894951096</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.373223699661296</v>
+        <v>-1.187418332761995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.412611009883384</v>
+        <v>-1.321735628998492</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3633637998810627</v>
+        <v>-0.339503136422095</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3629967864654807</v>
+        <v>-0.2885918702269637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1137685803630085</v>
+        <v>-0.1046211478526595</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.732134535716043</v>
+        <v>1.772990575275865</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.091076543211027</v>
+        <v>2.252261691845348</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.073282979602978</v>
+        <v>4.002176528412736</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.8281684269512722</v>
+        <v>0.784456581219434</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8493693874969496</v>
+        <v>1.005952556557102</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4307674657375755</v>
+        <v>0.4270397009878548</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.389081462985357</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.9677653349708486</v>
+        <v>-0.9677653349708483</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.05066398393281299</v>
@@ -709,7 +709,7 @@
         <v>0.4022011289934965</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2837946771138117</v>
+        <v>-0.2837946771138116</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6827666223740548</v>
+        <v>-0.7199164907314198</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2608603676432537</v>
+        <v>-0.3083615549615371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.880815275584625</v>
+        <v>-1.877128252501415</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5892966678394881</v>
+        <v>-0.5946405791563873</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2337986553331689</v>
+        <v>-0.2844552795754058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4705123826115716</v>
+        <v>-0.4771639012812126</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5845461739196955</v>
+        <v>0.5783870615710888</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.093341628694837</v>
+        <v>1.087119131799449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.1337373208711529</v>
+        <v>-0.05591610362964868</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9256243768213613</v>
+        <v>0.9906208368442715</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.607488516964943</v>
+        <v>1.561364539068571</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03613209643858847</v>
+        <v>-0.01521777492375836</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.6801498750448797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.8040681216148273</v>
+        <v>-0.8040681216148281</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.263293012919753</v>
@@ -791,7 +791,7 @@
         <v>0.805249300966524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.2271468758020025</v>
+        <v>-0.2271468758020027</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.563097068626568</v>
+        <v>-1.451469949282961</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6455349754703074</v>
+        <v>-0.5596656532990933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.304425173763347</v>
+        <v>-2.541261272240498</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.8449474804038659</v>
+        <v>-0.8877253136827258</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6472343999186964</v>
+        <v>-0.5882277977761515</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5223020172537252</v>
+        <v>-0.5444717901394556</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.731062897247516</v>
+        <v>1.793899618440541</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.177688942642821</v>
+        <v>2.323212079371878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8247299254031529</v>
+        <v>0.6895660413141165</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>6.095726855118182</v>
+        <v>7.252108330168811</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.796555339036078</v>
+        <v>9.021108950211772</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3147062606453343</v>
+        <v>0.2708596598108031</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3625983775114284</v>
+        <v>-0.3572324349213408</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.1039621435907452</v>
+        <v>-0.05849929595248818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7621081281518679</v>
+        <v>-0.8574518354451853</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1933606067830497</v>
+        <v>-0.2010627610807965</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06826244088184222</v>
+        <v>-0.04808407068759402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1468796033004357</v>
+        <v>-0.1613551210266862</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.91802378135838</v>
+        <v>0.9837582519450777</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.220830008128981</v>
+        <v>1.261069309540183</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8805822836823513</v>
+        <v>0.8249289546370843</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7472704668258059</v>
+        <v>0.8414959670053088</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.039177693523858</v>
+        <v>1.051198684527403</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2096533034052011</v>
+        <v>0.1952968395375823</v>
       </c>
     </row>
     <row r="16">
